--- a/files/Marcas.xlsx
+++ b/files/Marcas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cotizadorNuruena\ArchivosSubir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Cotizador\ArchivosSubir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -427,9 +427,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,265 +726,273 @@
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D16" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
       </c>
       <c r="G16" t="s">
         <v>93</v>
@@ -991,16 +1000,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
         <v>93</v>
@@ -1008,13 +1017,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
         <v>93</v>
@@ -1022,16 +1034,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
         <v>93</v>
@@ -1039,16 +1051,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
         <v>93</v>
@@ -1056,16 +1065,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
         <v>93</v>
@@ -1073,16 +1082,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
         <v>93</v>
@@ -1090,16 +1099,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
         <v>93</v>
@@ -1107,22 +1116,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
         <v>93</v>
@@ -1130,16 +1133,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
         <v>93</v>
@@ -1147,16 +1150,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
         <v>93</v>
@@ -1164,16 +1167,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
         <v>93</v>
@@ -1181,16 +1184,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
         <v>93</v>
@@ -1198,16 +1201,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
         <v>93</v>
@@ -1215,37 +1215,42 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" t="s">
-        <v>93</v>
-      </c>
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
